--- a/data_transaksi.xlsx
+++ b/data_transaksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadeksuryadi/Desktop/untitled folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E907880-E9B1-8B44-9B56-318EE7C41B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC3587D-4745-5944-AE94-2D25B52BA5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>transaksi_id</t>
   </si>
@@ -28,61 +28,52 @@
     <t>tanggal</t>
   </si>
   <si>
-    <t>detail_transaksi_id</t>
-  </si>
-  <si>
     <t>nama_barang</t>
   </si>
   <si>
     <t>TR001</t>
   </si>
   <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>DT002</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
     <t>TR002</t>
   </si>
   <si>
-    <t>DT003</t>
-  </si>
-  <si>
-    <t>Keyboard</t>
-  </si>
-  <si>
     <t>TR003</t>
   </si>
   <si>
-    <t>DT004</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>DT005</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
     <t>TR004</t>
   </si>
   <si>
-    <t>DT00133</t>
+    <t>Roti</t>
+  </si>
+  <si>
+    <t>Susu</t>
+  </si>
+  <si>
+    <t>Telur</t>
+  </si>
+  <si>
+    <t>Diapers</t>
+  </si>
+  <si>
+    <t>TR005</t>
+  </si>
+  <si>
+    <t>Kopi</t>
+  </si>
+  <si>
+    <t>TR006</t>
+  </si>
+  <si>
+    <t>TR007</t>
+  </si>
+  <si>
+    <t>Popok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -92,7 +83,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,7 +112,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,15 +331,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -358,77 +349,169 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>45505</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>45505</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45506</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45506</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45507</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45507</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B8" s="2">
+        <v>45508</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45508</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
-        <v>45501</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45508</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
-        <v>45498</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B11" s="2">
+        <v>45509</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45509</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45498</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B13" s="2">
+        <v>45510</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45510</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B15" s="2">
+        <v>45511</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45511</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
